--- a/Employee_Reports21/Pubudu Maduranga Hearth Ralalage Q0134.xlsx
+++ b/Employee_Reports21/Pubudu Maduranga Hearth Ralalage Q0134.xlsx
@@ -550,11 +550,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -646,11 +646,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -694,11 +694,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -742,11 +742,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -790,11 +790,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -838,11 +838,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -886,11 +886,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -934,11 +934,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -982,11 +982,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1030,11 +1030,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1078,11 +1078,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1126,11 +1126,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1172,11 +1172,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1219,11 +1219,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>-82</v>
+        <v>-83</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1265,11 +1265,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>-159</v>
+        <v>-160</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1311,11 +1311,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1347,11 +1347,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>-20</v>
+        <v>-21</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1383,11 +1383,11 @@
         </is>
       </c>
       <c r="H21" s="3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I21" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J21" s="3" t="inlineStr">
@@ -1429,11 +1429,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1475,11 +1475,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1521,11 +1521,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1567,11 +1567,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1613,11 +1613,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1649,11 +1649,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1685,11 +1685,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>26-Aug-2025</t>
+          <t>27-Aug-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
